--- a/data/trans_bre/P2C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 1,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 0,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 9,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,32; 982,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,54; 609,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 692,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,95; 38,7</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,2%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,64; 0,84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 1,37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 0,23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-13,61; -2,84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,26; 1598,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,06; 50,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,17; -26,51</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,27%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,96; 1,95</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 3,13</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 4,81</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-18,27; 6,17</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,61; 167,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,63; 1211,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,76; 79,24</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 1,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 2,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,44; 216,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,77; 206,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,11; 106,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,58; 12,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,12</t>
+          <t>-0,46; 1,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,11</t>
+          <t>-0,54; 1,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,9</t>
+          <t>-0,75; 0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 9,76</t>
+          <t>-6,89; 10,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,32; 982,75</t>
+          <t>-74,89; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 609,25</t>
+          <t>-66,94; 494,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 692,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 38,7</t>
+          <t>-17,92; 38,89</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,84</t>
+          <t>-0,7; 0,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,37</t>
+          <t>0,01; 1,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,27 +783,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -2,84</t>
+          <t>-13,21; -2,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,23; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 1598,23</t>
+          <t>-41,45; 1452,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,06; 50,7</t>
+          <t>-81,91; 48,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,17; -26,51</t>
+          <t>-87,64; -24,69</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,95</t>
+          <t>-1,56; 2,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,13</t>
+          <t>-4,03; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,81</t>
+          <t>-0,05; 4,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 6,17</t>
+          <t>-19,12; 6,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 167,63</t>
+          <t>-72,22; 187,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 1211,68</t>
+          <t>-32,6; 1101,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,76; 79,24</t>
+          <t>-68,15; 103,75</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,72</t>
+          <t>-0,33; 0,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,0</t>
+          <t>-0,25; 0,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,65</t>
+          <t>-0,6; 0,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 2,05</t>
+          <t>-11,43; 2,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 216,68</t>
+          <t>-43,24; 243,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 206,92</t>
+          <t>-24,66; 196,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 106,56</t>
+          <t>-48,88; 102,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 12,95</t>
+          <t>-58,81; 14,01</t>
         </is>
       </c>
     </row>
